--- a/data/副本时间和游客量(1).xlsx
+++ b/data/副本时间和游客量(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MCM2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F3F663-FE64-44AE-8651-D3C0FD7CF1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C62BDF-41E1-476F-BE5B-AFCFACD59169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3696" yWindow="3696" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -400,7 +398,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I20"/>
+      <selection activeCell="I20" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -461,7 +459,7 @@
       </c>
       <c r="G2" s="2">
         <f>1151001-6723*(A2-2011)-1198962*E2+337702*E2*E2</f>
-        <v>121195.777942</v>
+        <v>121195.77794200007</v>
       </c>
       <c r="H2" s="3">
         <f>76.62-57.4*E2+12.9*E2*E2</f>
@@ -469,7 +467,7 @@
       </c>
       <c r="I2" s="1">
         <f>-186843122+136.581*F2</f>
-        <v>16525987</v>
+        <v>16525986.99999997</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -487,24 +485,24 @@
         <v>1.5568</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E13" si="1">1.489*EXP(0.038*C3)</f>
-        <v>1.5466708057560801</v>
+        <f t="shared" ref="E3:E11" si="1">1.489*EXP(0.038*C3)</f>
+        <v>1.5466708057560832</v>
       </c>
       <c r="F3" s="2">
         <f>E3*1000000</f>
-        <v>1546670.80575608</v>
+        <v>1546670.8057560832</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G20" si="2">1151001-6723*(A3-2011)-1198962*E3+337702*E3*E3</f>
-        <v>104449.02110164599</v>
+        <v>104449.02110164636</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H20" si="3">76.62-57.4*E3+12.9*E3*E3</f>
-        <v>18.700354249379298</v>
+        <v>18.700354249379252</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I20" si="4">-186843122+136.581*F3</f>
-        <v>24402723.320971601</v>
+        <v>24402723.320971578</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -523,11 +521,11 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>1.6065752729202001</v>
+        <v>1.6065752729201959</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F20" si="5">E4*1000000</f>
-        <v>1606575.2729201999</v>
+        <v>1606575.2729201959</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="2"/>
@@ -535,11 +533,11 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="3"/>
-        <v>17.6985643218867</v>
+        <v>17.698564321886728</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="4"/>
-        <v>32584535.350713301</v>
+        <v>32584535.350713253</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -558,23 +556,23 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>1.6687999139525</v>
+        <v>1.6687999139525038</v>
       </c>
       <c r="F5" s="2">
         <f>E5*1000000</f>
-        <v>1668799.9139525001</v>
+        <v>1668799.9139525038</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="2"/>
-        <v>77191.305057206293</v>
+        <v>77191.305057206308</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="3"/>
-        <v>16.756006610347999</v>
+        <v>16.756006610347995</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="4"/>
-        <v>41083239.047546901</v>
+        <v>41083239.047546893</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,11 +591,11 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>1.7334345920474199</v>
+        <v>1.7334345920474155</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="5"/>
-        <v>1733434.5920474201</v>
+        <v>1733434.5920474154</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
@@ -605,11 +603,11 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
-        <v>15.882716171773399</v>
+        <v>15.882716171773374</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="4"/>
-        <v>49911108.016428001</v>
+        <v>49911108.016428024</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -628,23 +626,23 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>1.80057265091165</v>
+        <v>1.8005726509116475</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="5"/>
-        <v>1800572.6509116499</v>
+        <v>1800572.6509116476</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="2"/>
-        <v>60141.591349365401</v>
+        <v>60141.591349365423</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="3"/>
-        <v>15.0897279762933</v>
+        <v>15.089727976293304</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="4"/>
-        <v>59080891.234163702</v>
+        <v>59080891.234163731</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,23 +661,23 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>1.87031104956876</v>
+        <v>1.8703110495687605</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="5"/>
-        <v>1870311.04956876</v>
+        <v>1870311.0495687604</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="2"/>
-        <v>56257.137170123897</v>
+        <v>56257.137170123868</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>14.389163900346199</v>
+        <v>14.38916390034624</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="4"/>
-        <v>68605831.4611509</v>
+        <v>68605831.461150855</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,23 +696,23 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>1.9427505023848399</v>
+        <v>1.9427505023848359</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="5"/>
-        <v>1942750.50238484</v>
+        <v>1942750.5023848359</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="2"/>
-        <v>55960.712770934697</v>
+        <v>55960.712770934682</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>13.794326900373701</v>
+        <v>13.794326900373704</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="4"/>
-        <v>78499684.366223201</v>
+        <v>78499684.366223246</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -733,11 +731,11 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>2.0179956245175199</v>
+        <v>2.0179956245175212</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="5"/>
-        <v>2017995.62451752</v>
+        <v>2017995.6245175211</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
@@ -745,11 +743,11 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>13.319802946071301</v>
+        <v>13.319802946071292</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="4"/>
-        <v>88776738.392227501</v>
+        <v>88776738.39222753</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,23 +766,23 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>2.0961550829985001</v>
+        <v>2.0961550829984987</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="5"/>
-        <v>2096155.0829985</v>
+        <v>2096155.0829984988</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>67824.089880013402</v>
+        <v>67824.089880013373</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>12.9815713384339</v>
+        <v>12.981571338433895</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="4"/>
-        <v>99451835.391017899</v>
+        <v>99451835.391017914</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -802,24 +800,24 @@
         <v>2.0014020000000001</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3492702633572899</v>
+        <f>1.489*EXP(0.038*C12)</f>
+        <v>2.3492702633572855</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="5"/>
-        <v>2349270.2633572901</v>
+        <v>2349270.2633572854</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>124163.46377472</v>
+        <f>1151001-6723*(A12-2011)-1198962*E12+337702*E12*E12</f>
+        <v>124163.46377471974</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>12.9678998200949</v>
+        <v>12.967899820094857</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="4"/>
-        <v>134022559.839601</v>
+        <v>134022559.8396014</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,20 +835,20 @@
         <v>2.760678</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4402603970219099</v>
+        <f>1.489*EXP(0.038*C13)</f>
+        <v>2.4402603970219063</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="5"/>
-        <v>2440260.3970219102</v>
+        <v>2440260.3970219065</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>155517.29454829701</v>
+        <f>1151001-6723*(A13-2011)-1198962*E13+337702*E13*E13</f>
+        <v>155517.2945482966</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>13.3668865989709</v>
+        <v>13.366886598970893</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="4"/>
@@ -862,32 +860,32 @@
         <v>2024</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" ref="B14:B20" si="6">E14*1000000</f>
-        <v>2534774.6907431399</v>
+        <f>E14*1000000</f>
+        <v>2534774.6907431376</v>
       </c>
       <c r="C14" s="1">
         <v>14</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:E20" si="7">1.489*EXP(0.038*C14)</f>
-        <v>2.5347746907431401</v>
+        <f>1.489*EXP(0.038*C14)</f>
+        <v>2.5347746907431374</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="5"/>
-        <v>2534774.6907431399</v>
+        <v>2534774.6907431376</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
-        <v>194266.75628004799</v>
+        <f>1151001-6723*(A14-2011)-1198962*E14+337702*E14*E14</f>
+        <v>194266.75628004782</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>14.007500004876301</v>
+        <v>14.007500004876306</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>159358940.03638801</v>
+        <v>159358940.03638846</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -895,32 +893,32 @@
         <v>2025</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="6"/>
-        <v>2632949.63958483</v>
+        <f>E15*1000000</f>
+        <v>2632949.6395848319</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" si="7"/>
-        <v>2.63294963958483</v>
+        <f>1.489*EXP(0.038*C15)</f>
+        <v>2.6329496395848317</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>2632949.63958483</v>
+        <v>2632949.6395848319</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>241165.817881708</v>
+        <f>1151001-6723*(A15-2011)-1198962*E15+337702*E15*E15</f>
+        <v>241165.81788170757</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>14.9169577670403</v>
+        <v>14.916957767040316</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>172767772.72413599</v>
+        <v>172767772.72413588</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -928,32 +926,32 @@
         <v>2026</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="6"/>
-        <v>2734927.0252329502</v>
+        <f>E16*1000000</f>
+        <v>2734927.0252329484</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f t="shared" si="7"/>
-        <v>2.7349270252329498</v>
+        <f>1.489*EXP(0.038*C16)</f>
+        <v>2.7349270252329485</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="5"/>
-        <v>2734927.0252329502</v>
+        <v>2734927.0252329484</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
-        <v>297034.567546462</v>
+        <f>1151001-6723*(A16-2011)-1198962*E16+337702*E16*E16</f>
+        <v>297034.56754646171</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>16.124942001837901</v>
+        <v>16.124942001837894</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="4"/>
-        <v>186695946.03334099</v>
+        <v>186695946.03334129</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -961,32 +959,32 @@
         <v>2027</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="6"/>
-        <v>2840854.12075294</v>
+        <f>E17*1000000</f>
+        <v>2840854.1207529427</v>
       </c>
       <c r="C17" s="1">
         <v>17</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <f t="shared" si="7"/>
-        <v>2.8408541207529399</v>
+        <f>1.489*EXP(0.038*C17)</f>
+        <v>2.840854120752943</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="5"/>
-        <v>2840854.12075294</v>
+        <v>2840854.1207529427</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>362764.68870231498</v>
+        <f>1151001-6723*(A17-2011)-1198962*E17+337702*E17*E17</f>
+        <v>362764.68870231509</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>17.663806015427902</v>
+        <v>17.663806015427866</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="4"/>
-        <v>201163574.666558</v>
+        <v>201163574.66655767</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -994,32 +992,32 @@
         <v>2028</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="6"/>
-        <v>2950883.90327767</v>
+        <f>E18*1000000</f>
+        <v>2950883.9032776654</v>
       </c>
       <c r="C18" s="1">
         <v>18</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <f t="shared" si="7"/>
-        <v>2.9508839032776701</v>
+        <f>1.489*EXP(0.038*C18)</f>
+        <v>2.9508839032776653</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="5"/>
-        <v>2950883.90327767</v>
+        <v>2950883.9032776654</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>439325.37823749002</v>
+        <f>1151001-6723*(A18-2011)-1198962*E18+337702*E18*E18</f>
+        <v>439325.37823748961</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>19.568797908901701</v>
+        <v>19.568797908901686</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>216191552.393567</v>
+        <v>216191552.39356679</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1027,32 +1025,32 @@
         <v>2029</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="6"/>
-        <v>3065175.27493292</v>
+        <f t="shared" ref="B19:B20" si="6">E19*1000000</f>
+        <v>3065175.2749329233</v>
       </c>
       <c r="C19" s="1">
         <v>19</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <f t="shared" si="7"/>
-        <v>3.06517527493292</v>
+        <f t="shared" ref="E19:E20" si="7">1.489*EXP(0.038*C19)</f>
+        <v>3.0651752749329231</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="5"/>
-        <v>3065175.27493292</v>
+        <v>3065175.2749329233</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>527769.74230330798</v>
+        <v>527769.74230330763</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v>21.8783023310258</v>
+        <v>21.878302331025765</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="4"/>
-        <v>231801582.22561401</v>
+        <v>231801582.22561353</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,7 +1059,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="6"/>
-        <v>3183893.2923197602</v>
+        <v>3183893.292319763</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
@@ -1069,23 +1067,23 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <f t="shared" si="7"/>
-        <v>3.1838932923197598</v>
+        <v>3.1838932923197629</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="5"/>
-        <v>3183893.2923197602</v>
+        <v>3183893.292319763</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>629241.70780266996</v>
+        <v>629241.70780266961</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>24.634101830581901</v>
+        <v>24.634101830581869</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="4"/>
-        <v>248016207.75832599</v>
+        <v>248016207.75832552</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
